--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="14" r:id="rId1"/>
     <sheet name="Login tests" sheetId="8" r:id="rId2"/>
-    <sheet name="Address tests" sheetId="11" r:id="rId3"/>
+    <sheet name="Create gallery tests" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>TEST SCENARIO ID</t>
   </si>
@@ -48,37 +48,7 @@
     <t>Verify create gallery funcionality</t>
   </si>
   <si>
-    <t>Verify that the user can successfully update an address</t>
-  </si>
-  <si>
-    <t>Verify that the user can successfully add a new address</t>
-  </si>
-  <si>
-    <t>Verify that the user can successfully delete an address</t>
-  </si>
-  <si>
-    <t>TS-3</t>
-  </si>
-  <si>
-    <t>Verify wishlists functionality</t>
-  </si>
-  <si>
-    <t>Verify that the user can successfully add one wishlist</t>
-  </si>
-  <si>
-    <t>Verify that the user can successfully add multiple wishlists</t>
-  </si>
-  <si>
-    <t>Verify that he user can successfully remove wishlists</t>
-  </si>
-  <si>
-    <t>TS-4</t>
-  </si>
-  <si>
-    <t>Verify personal information page functionality</t>
-  </si>
-  <si>
-    <t>Verify that the user can successfully edit personal information</t>
+    <t>Verify that the user can  create a gallery</t>
   </si>
   <si>
     <t>TEST CASE ID</t>
@@ -216,130 +186,49 @@
     <t>Submit button is has expected text</t>
   </si>
   <si>
-    <t>NEW TEST DATA</t>
-  </si>
-  <si>
-    <t>OLD TEST DATA</t>
-  </si>
-  <si>
     <t>ADD-1</t>
   </si>
   <si>
-    <t>User is logged in and navigated to "My account" page</t>
-  </si>
-  <si>
-    <t>Click "MY ADDRESSES" button</t>
-  </si>
-  <si>
-    <t>My addresses page opens</t>
-  </si>
-  <si>
-    <t>Click "Add a new address" button</t>
-  </si>
-  <si>
-    <t>Address form opens</t>
-  </si>
-  <si>
-    <t>Enter address</t>
-  </si>
-  <si>
-    <t>123 Bull Street</t>
-  </si>
-  <si>
-    <t>Beogradska 22</t>
+    <t>Verify that the user can  create a gallery with one image</t>
+  </si>
+  <si>
+    <t>A valid account. The user is logged in.</t>
+  </si>
+  <si>
+    <t>Click "Create Galery"</t>
+  </si>
+  <si>
+    <t>"Create Gallery" page opens</t>
+  </si>
+  <si>
+    <t>Enter title</t>
+  </si>
+  <si>
+    <t>Ostrich</t>
+  </si>
+  <si>
+    <t>Title is entered</t>
+  </si>
+  <si>
+    <t>Enter description</t>
+  </si>
+  <si>
+    <t>The ostrich is the largest and heaviest living bird.</t>
   </si>
   <si>
     <t>Address is entered</t>
   </si>
   <si>
-    <t>Enter city</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Belgrade</t>
-  </si>
-  <si>
-    <t>City is entered</t>
-  </si>
-  <si>
-    <t>Select state from a dropdown menu</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>State is selected</t>
-  </si>
-  <si>
-    <t>Enter postal code</t>
-  </si>
-  <si>
-    <t>Postal code is entered</t>
-  </si>
-  <si>
-    <t>Enter mobile phone number</t>
-  </si>
-  <si>
-    <t>Mobile phone number is entered</t>
-  </si>
-  <si>
-    <t>Enter address title</t>
-  </si>
-  <si>
-    <t>New address</t>
-  </si>
-  <si>
-    <t>My address</t>
-  </si>
-  <si>
-    <t>Address title is entered</t>
-  </si>
-  <si>
-    <t>Click "Save" button</t>
-  </si>
-  <si>
-    <t>Address is saved</t>
-  </si>
-  <si>
-    <t>ADD-2</t>
-  </si>
-  <si>
-    <t>Click "Update" button</t>
-  </si>
-  <si>
-    <t>123 Ocean Drive</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Updated address</t>
-  </si>
-  <si>
-    <t>Address is updated</t>
-  </si>
-  <si>
-    <t>ADD-3</t>
-  </si>
-  <si>
-    <t>Click "Delete" button under the second address</t>
-  </si>
-  <si>
-    <t>Alert message "Are you sure" shows up</t>
-  </si>
-  <si>
-    <t>Click OK to confirm deleting</t>
-  </si>
-  <si>
-    <t>Address is deleted</t>
+    <t>Enter image URL</t>
+  </si>
+  <si>
+    <t>https://static.mondo.rs/Picture/881877/jpeg/noj.jpg</t>
+  </si>
+  <si>
+    <t>URL is entered</t>
+  </si>
+  <si>
+    <t>Gallery is created</t>
   </si>
 </sst>
 </file>
@@ -347,9 +236,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -375,15 +264,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -392,7 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,7 +288,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,9 +316,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,7 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,43 +402,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,19 +429,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,157 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,13 +617,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +637,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,41 +704,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,134 +737,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,11 +880,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1329,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1355,7 +1241,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1363,88 +1249,61 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="7"/>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="7"/>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
+    <row r="7" spans="2:2">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="7"/>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="7"/>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2"/>
@@ -1468,7 +1327,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1487,25 +1346,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1513,23 +1372,23 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:8">
@@ -1538,16 +1397,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1556,14 +1415,14 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1572,16 +1431,16 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1590,16 +1449,16 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1608,14 +1467,14 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1632,25 +1491,25 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1658,21 +1517,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1681,16 +1540,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1699,14 +1558,14 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:8">
@@ -1715,14 +1574,14 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:8">
@@ -1731,14 +1590,14 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1747,14 +1606,14 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1771,25 +1630,25 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1797,21 +1656,21 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1820,16 +1679,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1838,14 +1697,14 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1854,16 +1713,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:8">
@@ -1872,34 +1731,34 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" ht="13" customHeight="1" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="13" customHeight="1" spans="1:8">
@@ -1908,16 +1767,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1942,7 +1801,6 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2015,7 +1873,6 @@
     <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2088,7 +1945,6 @@
     <row r="43" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2157,555 +2013,293 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="47.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="27.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="46.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="31.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="21.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="8.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="24.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="8.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" ht="19" customHeight="1" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="29" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="3">
-        <v>60007</v>
-      </c>
-      <c r="G7" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9">
-      <c r="E8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1680000000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>680000000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9">
-      <c r="E9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9">
-      <c r="E10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="28.8" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="3">
-        <v>12345</v>
-      </c>
-      <c r="G18" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
-      <c r="E19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2680030050</v>
-      </c>
-      <c r="G19" s="6">
-        <v>680000000</v>
-      </c>
-      <c r="H19" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
-      <c r="E20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
-      <c r="E21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" ht="28.8" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" ht="28.8" spans="1:9">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="2"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+    </row>
+    <row r="28" spans="5:5">
       <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
